--- a/docs/shr-core-ResearchStudy.xlsx
+++ b/docs/shr-core-ResearchStudy.xlsx
@@ -612,7 +612,7 @@
 </t>
   </si>
   <si>
-    <t>A description and/or code explaining the premature termination of the study.</t>
+    <t>A code explaining unplanned or premature termination of a plan of treatment, course of medication, or research study.</t>
   </si>
   <si>
     <t>annotation</t>
